--- a/algorithmComparison.xlsx
+++ b/algorithmComparison.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
-  <si>
-    <t>是否是比较排序</t>
-  </si>
-  <si>
-    <t>排序类别</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>排序算法</t>
   </si>
@@ -49,6 +43,9 @@
   </si>
   <si>
     <t>是否是原址排序</t>
+  </si>
+  <si>
+    <t>是否稳定</t>
   </si>
   <si>
     <t>大O忽略的低阶项和常数因子的大小</t>
@@ -61,13 +58,6 @@
     <t>推荐使用场景</t>
   </si>
   <si>
-    <t>比较排序
-Ω(n*lgn)即比较排序最优时间复杂度方程式是n*lgn</t>
-  </si>
-  <si>
-    <t>交换排序</t>
-  </si>
-  <si>
     <t>基础冒泡排序</t>
   </si>
   <si>
@@ -84,6 +74,9 @@
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>稳定</t>
   </si>
   <si>
     <t>123.057851ms</t>
@@ -128,6 +121,9 @@
     <t>逆序对为0</t>
   </si>
   <si>
+    <t>不稳定</t>
+  </si>
+  <si>
     <t>小</t>
   </si>
   <si>
@@ -158,37 +154,37 @@
 速度会略慢，但是依旧比冒泡排序快很多</t>
   </si>
   <si>
-    <t>插入排序</t>
-  </si>
-  <si>
     <t>基础插入排序</t>
   </si>
   <si>
-    <t>折半插入排序</t>
-  </si>
-  <si>
-    <t>希尔排序</t>
+    <t>0&lt;逆序对&lt;=最多逆序对</t>
+  </si>
+  <si>
+    <t>11.154009ms</t>
+  </si>
+  <si>
+    <t>适用于逆序对比较少的情况，逆序对越好，插入排序越快</t>
+  </si>
+  <si>
+    <t>希尔优化插入排序</t>
+  </si>
+  <si>
+    <t>0.792114ms</t>
+  </si>
+  <si>
+    <t>该算法性能较好。而且逆序对越小，排序越快，这点和快速排序刚好相反</t>
   </si>
   <si>
     <t>选择排序</t>
   </si>
   <si>
-    <t>基础选择排序</t>
-  </si>
-  <si>
     <t>堆排序</t>
   </si>
   <si>
-    <t>归并排序</t>
-  </si>
-  <si>
     <t>二路归并排序</t>
   </si>
   <si>
     <t>多路归并排序</t>
-  </si>
-  <si>
-    <t>非比较排序</t>
   </si>
   <si>
     <t>计数排序</t>
@@ -205,12 +201,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,13 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -348,6 +337,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -357,13 +353,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -379,30 +368,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,12 +530,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,24 +542,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -464,102 +549,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,152 +664,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1184,53 +1170,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
     <col min="10" max="10" width="9.25" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" ht="54" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1239,7 +1225,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1248,262 +1234,378 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+    </row>
+    <row r="2" ht="54" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" ht="54" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" ht="147" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
+      <c r="K3" s="1"/>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" ht="177" customHeight="1" spans="3:14">
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="4" ht="94.5" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="81" spans="3:14">
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="1" t="s">
+    </row>
+    <row r="5" ht="40.5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" ht="40.5" spans="3:14">
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" ht="81" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>40</v>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" ht="81" spans="3:14">
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="1" t="s">
+    <row r="7" ht="40.5" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
-        <v>46</v>
+    <row r="8" ht="54" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9"/>
+      <c r="F9" s="1"/>
+      <c r="H9"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10"/>
+      <c r="F10" s="1"/>
+      <c r="H10"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11"/>
+      <c r="F11" s="1"/>
+      <c r="H11"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12"/>
+      <c r="F12" s="1"/>
+      <c r="H12"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13"/>
+      <c r="F13" s="1"/>
+      <c r="H13"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15" s="1" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14"/>
+      <c r="F14" s="1"/>
+      <c r="H14"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15"/>
+      <c r="F15" s="1"/>
+      <c r="H15"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="16" spans="3:11">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16"/>
+      <c r="F16" s="1"/>
+      <c r="H16"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/algorithmComparison.xlsx
+++ b/algorithmComparison.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>排序算法</t>
   </si>
@@ -178,7 +178,13 @@
     <t>选择排序</t>
   </si>
   <si>
-    <t>堆排序</t>
+    <t>28.872786ms</t>
+  </si>
+  <si>
+    <t>二叉堆排序</t>
+  </si>
+  <si>
+    <t>多叉堆排序</t>
   </si>
   <si>
     <t>二路归并排序</t>
@@ -202,9 +208,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -217,6 +223,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,9 +281,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,9 +319,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,20 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -314,50 +364,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,6 +374,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,7 +440,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,163 +536,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +588,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,30 +665,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,10 +685,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,118 +697,118 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1172,8 +1178,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1514,33 +1520,78 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9"/>
-      <c r="F9" s="1"/>
-      <c r="H9"/>
-      <c r="J9" s="1"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10"/>
-      <c r="F10" s="1"/>
-      <c r="H10"/>
-      <c r="J10" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
+      <c r="A11" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -1552,7 +1603,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1564,7 +1615,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -1576,7 +1627,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -1588,7 +1639,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -1598,7 +1649,10 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="3:11">
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16"/>

--- a/algorithmComparison.xlsx
+++ b/algorithmComparison.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>排序算法</t>
   </si>
@@ -184,22 +184,37 @@
     <t>二叉堆排序</t>
   </si>
   <si>
+    <t>0.957664ms</t>
+  </si>
+  <si>
     <t>多叉堆排序</t>
   </si>
   <si>
-    <t>二路归并排序</t>
-  </si>
-  <si>
-    <t>多路归并排序</t>
+    <t>O(n*lg(n/d)) d为叉数</t>
+  </si>
+  <si>
+    <t>1.324014ms</t>
+  </si>
+  <si>
+    <t>归并排序</t>
+  </si>
+  <si>
+    <t>1.866599ms</t>
   </si>
   <si>
     <t>计数排序</t>
   </si>
   <si>
+    <t>0.226896ms</t>
+  </si>
+  <si>
+    <t>性能非常好，但需要知道该数列的最大值，该最大值不是很大时性能很好。</t>
+  </si>
+  <si>
+    <t>基数排序</t>
+  </si>
+  <si>
     <t>桶排序</t>
-  </si>
-  <si>
-    <t>基数排序</t>
   </si>
 </sst>
 </file>
@@ -208,8 +223,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -228,13 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -251,6 +259,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -288,17 +304,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,6 +345,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -325,43 +366,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -374,6 +389,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,168 +570,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,30 +603,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +656,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -676,7 +691,7 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,137 +700,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,6 +842,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1179,7 +1197,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1556,7 +1574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1588,46 +1606,124 @@
         <v>19</v>
       </c>
       <c r="K10" s="1"/>
+      <c r="L10" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11"/>
-      <c r="F11" s="1"/>
-      <c r="H11"/>
-      <c r="J11" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12"/>
-      <c r="F12" s="1"/>
-      <c r="H12"/>
-      <c r="J12" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" ht="54" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13"/>
-      <c r="F13" s="1"/>
-      <c r="H13"/>
-      <c r="J13" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -1639,7 +1735,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -1649,10 +1745,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
+    <row r="16" spans="3:11">
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16"/>

--- a/algorithmComparison.xlsx
+++ b/algorithmComparison.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>排序算法</t>
   </si>
@@ -208,13 +208,22 @@
     <t>0.226896ms</t>
   </si>
   <si>
-    <t>性能非常好，但需要知道该数列的最大值，该最大值不是很大时性能很好。</t>
+    <t>性能非常好，但需要知道该数列的最大值。而且当这个最大值很大时，占用空间较多</t>
   </si>
   <si>
     <t>基数排序</t>
   </si>
   <si>
+    <t>O(k*n)k为最大位数</t>
+  </si>
+  <si>
+    <t>0.840113ms</t>
+  </si>
+  <si>
     <t>桶排序</t>
+  </si>
+  <si>
+    <t>2.348724ms</t>
   </si>
 </sst>
 </file>
@@ -223,11 +232,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +245,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,29 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -380,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +413,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,30 +467,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -574,12 +604,80 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,10 +786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,137 +798,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,7 +941,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1196,8 +1333,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1218,532 +1355,574 @@
     <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="33.75" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="45" spans="1:13">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" ht="147" customHeight="1" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="94.5" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="67.5" spans="1:13">
+      <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="33.75" spans="1:13">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="81" spans="1:13">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="67.5" spans="1:13">
+      <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:13">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="33.75" spans="1:13">
+      <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="1:13">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="33.75" spans="1:13">
+      <c r="A8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
         <v>51</v>
       </c>
+      <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="D10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="4" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="17" t="s">
         <v>53</v>
       </c>
+      <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="D11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
         <v>56</v>
       </c>
+      <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
         <v>58</v>
       </c>
+      <c r="M12" s="16"/>
     </row>
-    <row r="13" ht="54" spans="1:13">
-      <c r="A13" s="1" t="s">
+    <row r="13" ht="45" spans="1:13">
+      <c r="A13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="D13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14"/>
-      <c r="F14" s="1"/>
-      <c r="H14"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15"/>
-      <c r="F15" s="1"/>
-      <c r="H15"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="2"/>
